--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_9 1.C++入门基础(2).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_9 1.C++入门基础(2).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,13 +16,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +57,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>589121</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>18358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="485775"/>
+          <a:ext cx="11428571" cy="5533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>522600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>170898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6381750"/>
+          <a:ext cx="10200000" cy="4419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>618332</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>9102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="11201400"/>
+          <a:ext cx="6342857" cy="3380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542219</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="11172825"/>
+          <a:ext cx="5647619" cy="6619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>27639</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>94857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="14954250"/>
+          <a:ext cx="7485714" cy="3142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +342,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +377,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +553,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="O108" activeCellId="1" sqref="E95 O108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>